--- a/Monthly_Report_By_State_2022.xlsx
+++ b/Monthly_Report_By_State_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpkin\OneDrive\Documents\PowerBI\datasets-power-bi-training\Monthly_Report_By_State\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpkin\OneDrive\Documents\PowerBI\datasets-power-bi-training\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B2D10707-842F-4185-9FA7-C3A5B049B64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725BC42C-FC2A-44D1-94B3-0596C95745F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monthly Report By State Month" sheetId="5" r:id="rId1"/>
@@ -232,9 +232,6 @@
     <t xml:space="preserve">Year </t>
   </si>
   <si>
-    <t>Medicare Enrollments in 2022 by Month and enrollment type</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -252,14 +249,17 @@
   <si>
     <t>Prescription Drug</t>
   </si>
+  <si>
+    <t>Medicare Enrollments in 2022 by State, Month and enrollment type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -739,11 +739,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -804,9 +803,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -844,7 +843,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -950,7 +949,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1092,32 +1091,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1125,9 +1124,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
@@ -1166,4622 +1165,4622 @@
         <v>68</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2725</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2801</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2788</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>2777</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>2851</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>2925</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>2720</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>2815</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>2849</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>2801</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>2811</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>2694</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>22</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>37</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>36</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>33</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>119</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>124</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>118</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>120</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>70</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>103</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>120</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>11</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>14</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>15</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>15</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>17</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>17</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>17</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>16</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>607</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1142</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1222</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>1287</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1675</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1785</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>1111</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>1384</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>1409</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>1419</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>1479</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>1381</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1419</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>1585</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>1556</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1487</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>1566</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>1539</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>1432</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>1513</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>1611</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>1570</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>1603</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>1492</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>125333</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>126869</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>126822</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>127028</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>129207</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>128209</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>125276</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>126752</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>126769</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>127657</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>128577</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>126070</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>5893</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>6114</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>6166</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>5982</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>6154</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>5997</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>5734</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>5779</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>5854</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>5835</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>5672</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>5388</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>91</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>206</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>543</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>511</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>789</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>632</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>517</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>588</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>729</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>676</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>476</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>274</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>313</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>318</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>319</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>340</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>331</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>288</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>311</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>351</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>352</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>352</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>3591</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>4117</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>4153</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>4299</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>4815</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>4770</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>3768</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>4611</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>4607</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>5196</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>4751</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>3976</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>398</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>689</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>604</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>572</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>758</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>668</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>417</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>584</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>635</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>701</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>715</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>11</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>12</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>24</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>56</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>320</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>60</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>85</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>104</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>44</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>68</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>72</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>101</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>90</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1119</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>1185</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>1159</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>1196</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>1317</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>1240</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>1199</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>1231</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>1224</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>1270</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>1218</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>1094</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>98031</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>101951</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>101604</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>101891</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>101902</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>100043</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>100548</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>101951</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>101759</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <v>101516</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <v>101015</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="2">
         <v>100569</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>3061</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>3098</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>3265</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>3242</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>3541</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>3498</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>3312</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>3376</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>3462</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>3490</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>3374</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>2967</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>13443</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>13671</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>13669</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>13687</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>13802</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>13822</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>13746</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>13808</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>13853</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>13917</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>13895</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>13860</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>2080</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>2180</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>2158</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>2175</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>2233</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>2240</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>2155</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>2219</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>2259</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>2262</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>2292</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>2292</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>5357</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>4950</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>4884</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>5386</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>5806</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>5705</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>5197</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>5507</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>5688</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>5886</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>5345</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>4711</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>677</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>818</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>789</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>859</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>1448</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>1095</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>804</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>1049</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>1086</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>1068</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <v>1080</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <v>694</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>35</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>96</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>83</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>72</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>193</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="2">
         <v>158</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>92</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>150</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>175</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="2">
         <v>192</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <v>174</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>342</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>512</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>437</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>435</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>1127</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>1023</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>461</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>988</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>1127</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>1236</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <v>1077</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>36233</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>36673</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>37129</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>39025</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>39027</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>38844</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>40858</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>40826</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>40334</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>43889</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <v>43432</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="2">
         <v>42013</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>44344</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>44253</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>43941</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>46468</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>46408</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>46134</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>45884</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>48546</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>49551</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>52035</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <v>51723</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="2">
         <v>50059</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>62241</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>62711</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>62708</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>62736</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>62978</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>63020</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>62971</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>63197</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>63203</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>63425</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <v>63424</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="2">
         <v>63281</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>152</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>212</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>412</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>424</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>559</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>448</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>291</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>389</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>383</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>412</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <v>255</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>1705</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>1988</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>1907</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>1885</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>1996</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>1941</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>1729</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>1916</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>1965</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="2">
         <v>1976</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="2">
         <v>1949</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="2">
         <v>1726</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>114</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>149</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>227</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>184</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>220</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G33" s="2">
         <v>209</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>172</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>212</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>214</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="2">
         <v>243</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="2">
         <v>208</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="2">
         <v>189</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>8126</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>8551</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>8777</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>8907</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>9167</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34" s="2">
         <v>9283</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>9326</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>9458</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>9585</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="2">
         <v>9680</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="2">
         <v>9779</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="2">
         <v>9836</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>362</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>453</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>430</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <v>445</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>516</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="2">
         <v>444</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>362</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>416</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>451</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="2">
         <v>466</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="2">
         <v>483</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="2">
         <v>383</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>116</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>114</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>134</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>132</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>169</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="2">
         <v>157</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>103</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>154</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>188</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="2">
         <v>212</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="2">
         <v>169</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="2">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>1467</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>1891</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>1801</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <v>1867</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>2148</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G37" s="2">
         <v>2095</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>1712</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>1993</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>1955</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="2">
         <v>2216</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="2">
         <v>2193</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="2">
         <v>1710</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>823</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>829</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>990</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>929</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>1017</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <v>949</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>813</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <v>908</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>934</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="2">
         <v>949</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>969</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <v>712</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>11440</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>12490</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>12355</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <v>12434</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>12793</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>12875</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="2">
         <v>11966</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="2">
         <v>12773</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>13683</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="2">
         <v>13411</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="2">
         <v>13453</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="2">
         <v>11566</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>2860</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>2780</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>3249</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>3385</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>3914</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>3857</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>3495</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="2">
         <v>3671</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>3720</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="2">
         <v>3796</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="2">
         <v>3336</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="2">
         <v>2576</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>23547</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>23853</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>23895</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <v>23951</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>24072</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="2">
         <v>24125</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>24166</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="2">
         <v>24271</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>24333</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="2">
         <v>24414</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="2">
         <v>24427</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="2">
         <v>24389</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>84627</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>85690</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>85004</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <v>84673</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>83660</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>84580</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>83771</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="2">
         <v>83223</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <v>83591</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="2">
         <v>82858</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="2">
         <v>82958</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="2">
         <v>80690</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>918</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <v>1079</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>1066</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>1073</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>1195</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>1160</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>969</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="2">
         <v>1119</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>1135</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="2">
         <v>1140</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="2">
         <v>1157</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>2140</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <v>2277</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>2254</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <v>2657</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>2708</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>2678</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="2">
         <v>2501</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="2">
         <v>2580</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <v>2636</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="2">
         <v>2681</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="2">
         <v>2466</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="2">
         <v>2272</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>12941</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <v>13434</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>13449</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>13546</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <v>13863</v>
       </c>
-      <c r="G46" s="3">
+      <c r="G46" s="2">
         <v>13715</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="2">
         <v>13108</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="2">
         <v>13719</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <v>13856</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="2">
         <v>14052</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="2">
         <v>13997</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="2">
         <v>13384</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>81</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <v>74</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>76</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <v>81</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <v>79</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="2">
         <v>81</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="2">
         <v>98</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="2">
         <v>100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <v>96</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="2">
         <v>99</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="2">
         <v>118</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>13016</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <v>13082</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>13133</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>13233</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>13272</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <v>13311</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>13343</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="2">
         <v>13421</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <v>13476</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="2">
         <v>13541</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="2">
         <v>13723</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="2">
         <v>13733</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>15624</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <v>15720</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>15584</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>15379</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <v>15247</v>
       </c>
-      <c r="G49" s="3">
+      <c r="G49" s="2">
         <v>15088</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>14766</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="2">
         <v>14694</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <v>14686</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="2">
         <v>14477</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="2">
         <v>14411</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="2">
         <v>14115</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>30829</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <v>31694</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>31899</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>32033</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <v>32275</v>
       </c>
-      <c r="G50" s="3">
+      <c r="G50" s="2">
         <v>32404</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>32503</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="2">
         <v>32673</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <v>32804</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="2">
         <v>32887</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="2">
         <v>32976</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="2">
         <v>33004</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>1012</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <v>1259</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>1173</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <v>1242</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <v>1357</v>
       </c>
-      <c r="G51" s="3">
+      <c r="G51" s="2">
         <v>1491</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>1041</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="2">
         <v>1311</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <v>1269</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="2">
         <v>1441</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="2">
         <v>1365</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="2">
         <v>1066</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>39615</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <v>39395</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>39243</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>39705</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>39383</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>39056</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="2">
         <v>37953</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="2">
         <v>38116</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <v>37884</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="2">
         <v>37683</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="2">
         <v>37588</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="2">
         <v>36728</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>1778</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <v>1827</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <v>1831</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <v>1800</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <v>1891</v>
       </c>
-      <c r="G53" s="3">
+      <c r="G53" s="2">
         <v>1866</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="2">
         <v>1800</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>1911</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <v>1873</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>1879</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="2">
         <v>1855</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="2">
         <v>1747</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>14</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <v>46</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <v>32</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>32</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <v>75</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="2">
         <v>74</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="2">
         <v>57</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="2">
         <v>71</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <v>57</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="2">
         <v>56</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="2">
         <v>58</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="2">
         <v>11</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>4101</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <v>4311</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>4365</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <v>4173</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <v>4612</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="2">
         <v>4358</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>4081</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="2">
         <v>4763</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <v>4301</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="2">
         <v>4576</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="2">
         <v>4561</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="2">
         <v>4061</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>1671</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <v>1804</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>2158</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <v>1915</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <v>2685</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="2">
         <v>2620</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="2">
         <v>1908</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="2">
         <v>2531</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <v>2559</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="2">
         <v>2661</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="2">
         <v>2548</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="2">
         <v>1780</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>86</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <v>58</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>148</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <v>145</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <v>244</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="2">
         <v>249</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="2">
         <v>223</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="2">
         <v>211</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <v>234</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="2">
         <v>296</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="2">
         <v>221</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="2">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>16687</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <v>16649</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>16583</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>16507</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <v>16524</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>16480</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>16372</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="2">
         <v>16370</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <v>16349</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="2">
         <v>16309</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="2">
         <v>16264</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="2">
         <v>16165</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>46135</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <v>46357</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>46251</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>46103</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <v>46152</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <v>46345</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="2">
         <v>45760</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="2">
         <v>45844</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <v>45807</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="2">
         <v>46218</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="2">
         <v>46031</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="2">
         <v>45616</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>755</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <v>792</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>799</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>794</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <v>821</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <v>817</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="2">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="2">
         <v>818</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <v>829</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="2">
         <v>837</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="2">
         <v>828</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M61" s="2">
         <v>807</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>274542</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <v>271826</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>271088</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>269498</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <v>267893</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="2">
         <v>267130</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="2">
         <v>266672</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="2">
         <v>265676</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <v>265186</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="2">
         <v>264359</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="2">
         <v>263747</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63" s="2">
         <v>263575</v>
       </c>
       <c r="N63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>70400</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <v>70657</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>70707</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>70679</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <v>70798</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="2">
         <v>70870</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="2">
         <v>71066</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="2">
         <v>71269</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <v>71403</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="2">
         <v>71517</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64" s="2">
         <v>73014</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="2">
         <v>73033</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>101</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="2">
         <v>102</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>101</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>101</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <v>101</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="2">
         <v>100</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="2">
         <v>102</v>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="2">
         <v>106</v>
       </c>
-      <c r="J65" s="3">
+      <c r="J65" s="2">
         <v>106</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="2">
         <v>110</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65" s="2">
         <v>113</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M65" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>456730</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>454673</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="2">
         <v>455296</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>455113</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="2">
         <v>454549</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="2">
         <v>455086</v>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="2">
         <v>455672</v>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="2">
         <v>455770</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="2">
         <v>456694</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="2">
         <v>457159</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="2">
         <v>458104</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="2">
         <v>459004</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>265771</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>263944</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67" s="2">
         <v>264147</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="2">
         <v>263238</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="2">
         <v>262454</v>
       </c>
-      <c r="G67" s="3">
+      <c r="G67" s="2">
         <v>262015</v>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="2">
         <v>261798</v>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="2">
         <v>261505</v>
       </c>
-      <c r="J67" s="3">
+      <c r="J67" s="2">
         <v>261286</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="2">
         <v>260950</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="2">
         <v>260795</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="2">
         <v>260925</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>2267282</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="2">
         <v>2262447</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68" s="2">
         <v>2274649</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>2274254</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="2">
         <v>2271971</v>
       </c>
-      <c r="G68" s="3">
+      <c r="G68" s="2">
         <v>2277517</v>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="2">
         <v>2283173</v>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="2">
         <v>2282928</v>
       </c>
-      <c r="J68" s="3">
+      <c r="J68" s="2">
         <v>2287829</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="2">
         <v>2289769</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68" s="2">
         <v>2292495</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68" s="2">
         <v>2298157</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>299331</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="2">
         <v>297790</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>298934</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="2">
         <v>298962</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="2">
         <v>298555</v>
       </c>
-      <c r="G69" s="3">
+      <c r="G69" s="2">
         <v>299245</v>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="2">
         <v>300163</v>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="2">
         <v>300569</v>
       </c>
-      <c r="J69" s="3">
+      <c r="J69" s="2">
         <v>301244</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="2">
         <v>301679</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69" s="2">
         <v>302362</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69" s="2">
         <v>303161</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>240961</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="2">
         <v>239478</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>239113</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>238169</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="2">
         <v>237168</v>
       </c>
-      <c r="G70" s="3">
+      <c r="G70" s="2">
         <v>236919</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="2">
         <v>236773</v>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="2">
         <v>236215</v>
       </c>
-      <c r="J70" s="3">
+      <c r="J70" s="2">
         <v>236034</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="2">
         <v>235689</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L70" s="2">
         <v>235784</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="2">
         <v>235930</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>125894</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="2">
         <v>125404</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>125552</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="2">
         <v>125490</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="2">
         <v>125455</v>
       </c>
-      <c r="G71" s="3">
+      <c r="G71" s="2">
         <v>125585</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="2">
         <v>125769</v>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="2">
         <v>126110</v>
       </c>
-      <c r="J71" s="3">
+      <c r="J71" s="2">
         <v>126343</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="2">
         <v>126613</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71" s="2">
         <v>126911</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M71" s="2">
         <v>127108</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>1427414</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72" s="2">
         <v>1426805</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>1429932</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>1428825</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="2">
         <v>1429932</v>
       </c>
-      <c r="G72" s="3">
+      <c r="G72" s="2">
         <v>1430210</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="2">
         <v>1430495</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="2">
         <v>1429111</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="2">
         <v>1430628</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="2">
         <v>1431110</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="2">
         <v>1431692</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="2">
         <v>1432727</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>540838</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="2">
         <v>537119</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>536863</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <v>535844</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <v>534172</v>
       </c>
-      <c r="G73" s="3">
+      <c r="G73" s="2">
         <v>534230</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="2">
         <v>534023</v>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="2">
         <v>533546</v>
       </c>
-      <c r="J73" s="3">
+      <c r="J73" s="2">
         <v>533665</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="2">
         <v>533507</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="2">
         <v>533466</v>
       </c>
-      <c r="M73" s="3">
+      <c r="M73" s="2">
         <v>533956</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>2784</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74" s="2">
         <v>2797</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>2786</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>2793</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>2776</v>
       </c>
-      <c r="G74" s="3">
+      <c r="G74" s="2">
         <v>2753</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="2">
         <v>2747</v>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="2">
         <v>2741</v>
       </c>
-      <c r="J74" s="3">
+      <c r="J74" s="2">
         <v>2723</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="2">
         <v>2706</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="2">
         <v>2689</v>
       </c>
-      <c r="M74" s="3">
+      <c r="M74" s="2">
         <v>2661</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>71281</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75" s="2">
         <v>70869</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>70683</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <v>70877</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>70967</v>
       </c>
-      <c r="G75" s="3">
+      <c r="G75" s="2">
         <v>71084</v>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="2">
         <v>71033</v>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="2">
         <v>70788</v>
       </c>
-      <c r="J75" s="3">
+      <c r="J75" s="2">
         <v>70722</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="2">
         <v>70575</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="2">
         <v>70648</v>
       </c>
-      <c r="M75" s="3">
+      <c r="M75" s="2">
         <v>70758</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>126906</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76" s="2">
         <v>126186</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>126399</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>126396</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2">
         <v>126139</v>
       </c>
-      <c r="G76" s="3">
+      <c r="G76" s="2">
         <v>126240</v>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="2">
         <v>126391</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="2">
         <v>126493</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="2">
         <v>126790</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="2">
         <v>127012</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="2">
         <v>127314</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="2">
         <v>127545</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>16</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>1005948</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77" s="2">
         <v>993376</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>995364</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>993323</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>993806</v>
       </c>
-      <c r="G77" s="3">
+      <c r="G77" s="2">
         <v>995487</v>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="2">
         <v>997784</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="2">
         <v>995329</v>
       </c>
-      <c r="J77" s="3">
+      <c r="J77" s="2">
         <v>996847</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="2">
         <v>998566</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="2">
         <v>998642</v>
       </c>
-      <c r="M77" s="3">
+      <c r="M77" s="2">
         <v>999150</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>17</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>556099</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="2">
         <v>552900</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>552845</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>551928</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2">
         <v>550155</v>
       </c>
-      <c r="G78" s="3">
+      <c r="G78" s="2">
         <v>550207</v>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="2">
         <v>550563</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="2">
         <v>550491</v>
       </c>
-      <c r="J78" s="3">
+      <c r="J78" s="2">
         <v>550499</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="2">
         <v>550304</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="2">
         <v>550232</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78" s="2">
         <v>550507</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>359583</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="2">
         <v>348570</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79" s="2">
         <v>348846</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>348627</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <v>347829</v>
       </c>
-      <c r="G79" s="3">
+      <c r="G79" s="2">
         <v>348207</v>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="2">
         <v>348508</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="2">
         <v>348496</v>
       </c>
-      <c r="J79" s="3">
+      <c r="J79" s="2">
         <v>348829</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="2">
         <v>349045</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="2">
         <v>349144</v>
       </c>
-      <c r="M79" s="3">
+      <c r="M79" s="2">
         <v>349425</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>282077</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="2">
         <v>281237</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80" s="2">
         <v>281372</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>280852</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>280359</v>
       </c>
-      <c r="G80" s="3">
+      <c r="G80" s="2">
         <v>280867</v>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="2">
         <v>281110</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="2">
         <v>281367</v>
       </c>
-      <c r="J80" s="3">
+      <c r="J80" s="2">
         <v>281663</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="2">
         <v>282110</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80" s="2">
         <v>282246</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M80" s="2">
         <v>282445</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>386739</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="2">
         <v>383423</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="2">
         <v>382568</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>379904</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="2">
         <v>375766</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81" s="2">
         <v>374723</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="2">
         <v>374598</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="2">
         <v>373530</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="2">
         <v>372948</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="2">
         <v>371932</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="2">
         <v>371621</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="2">
         <v>371802</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>294931</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="2">
         <v>292607</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82" s="2">
         <v>292290</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>291482</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="2">
         <v>289826</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82" s="2">
         <v>289638</v>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="2">
         <v>289707</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="2">
         <v>289249</v>
       </c>
-      <c r="J82" s="3">
+      <c r="J82" s="2">
         <v>289184</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="2">
         <v>288746</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82" s="2">
         <v>288507</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82" s="2">
         <v>288987</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>110146</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="2">
         <v>108901</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>108684</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <v>108217</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="2">
         <v>107413</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83" s="2">
         <v>107076</v>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="2">
         <v>106883</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="2">
         <v>106469</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="2">
         <v>106247</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="2">
         <v>106030</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="2">
         <v>105801</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="2">
         <v>105694</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>23</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>526567</v>
       </c>
-      <c r="C84" s="3">
+      <c r="C84" s="2">
         <v>525632</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>524881</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>524707</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="2">
         <v>523635</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84" s="2">
         <v>523930</v>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="2">
         <v>524377</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="2">
         <v>524700</v>
       </c>
-      <c r="J84" s="3">
+      <c r="J84" s="2">
         <v>525213</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="2">
         <v>525596</v>
       </c>
-      <c r="L84" s="3">
+      <c r="L84" s="2">
         <v>526075</v>
       </c>
-      <c r="M84" s="3">
+      <c r="M84" s="2">
         <v>526330</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>709626</v>
       </c>
-      <c r="C85" s="3">
+      <c r="C85" s="2">
         <v>708234</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>708913</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <v>706683</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="2">
         <v>706525</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85" s="2">
         <v>707243</v>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="2">
         <v>707684</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="2">
         <v>706084</v>
       </c>
-      <c r="J85" s="3">
+      <c r="J85" s="2">
         <v>707761</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="2">
         <v>704849</v>
       </c>
-      <c r="L85" s="3">
+      <c r="L85" s="2">
         <v>705585</v>
       </c>
-      <c r="M85" s="3">
+      <c r="M85" s="2">
         <v>706112</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>984158</v>
       </c>
-      <c r="C86" s="3">
+      <c r="C86" s="2">
         <v>975413</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>973926</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>970289</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="2">
         <v>966605</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86" s="2">
         <v>965903</v>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="2">
         <v>967407</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="2">
         <v>964909</v>
       </c>
-      <c r="J86" s="3">
+      <c r="J86" s="2">
         <v>970405</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="2">
         <v>964834</v>
       </c>
-      <c r="L86" s="3">
+      <c r="L86" s="2">
         <v>965013</v>
       </c>
-      <c r="M86" s="3">
+      <c r="M86" s="2">
         <v>965531</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>349522</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87" s="2">
         <v>347219</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>347677</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <v>347205</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="2">
         <v>346394</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87" s="2">
         <v>346611</v>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="2">
         <v>346959</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="2">
         <v>347236</v>
       </c>
-      <c r="J87" s="3">
+      <c r="J87" s="2">
         <v>347825</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="2">
         <v>347916</v>
       </c>
-      <c r="L87" s="3">
+      <c r="L87" s="2">
         <v>348115</v>
       </c>
-      <c r="M87" s="3">
+      <c r="M87" s="2">
         <v>348352</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>274701</v>
       </c>
-      <c r="C88" s="3">
+      <c r="C88" s="2">
         <v>272590</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>271635</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <v>270236</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="2">
         <v>268529</v>
       </c>
-      <c r="G88" s="3">
+      <c r="G88" s="2">
         <v>267862</v>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="2">
         <v>267404</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="2">
         <v>266601</v>
       </c>
-      <c r="J88" s="3">
+      <c r="J88" s="2">
         <v>266031</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="2">
         <v>265026</v>
       </c>
-      <c r="L88" s="3">
+      <c r="L88" s="2">
         <v>264640</v>
       </c>
-      <c r="M88" s="3">
+      <c r="M88" s="2">
         <v>264716</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>467406</v>
       </c>
-      <c r="C89" s="3">
+      <c r="C89" s="2">
         <v>464376</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <v>464180</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="2">
         <v>463087</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <v>461454</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89" s="2">
         <v>461127</v>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="2">
         <v>461048</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="2">
         <v>460689</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="2">
         <v>460654</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="2">
         <v>460635</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="2">
         <v>460701</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="2">
         <v>461002</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>119217</v>
       </c>
-      <c r="C90" s="3">
+      <c r="C90" s="2">
         <v>119051</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <v>119385</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="2">
         <v>119522</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <v>119517</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="2">
         <v>119787</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="2">
         <v>120087</v>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="2">
         <v>120466</v>
       </c>
-      <c r="J90" s="3">
+      <c r="J90" s="2">
         <v>120767</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="2">
         <v>121122</v>
       </c>
-      <c r="L90" s="3">
+      <c r="L90" s="2">
         <v>121363</v>
       </c>
-      <c r="M90" s="3">
+      <c r="M90" s="2">
         <v>121597</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>191491</v>
       </c>
-      <c r="C91" s="3">
+      <c r="C91" s="2">
         <v>190814</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>191139</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="2">
         <v>191077</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="2">
         <v>190785</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="2">
         <v>190929</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="2">
         <v>191127</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="2">
         <v>191154</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="2">
         <v>191515</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="2">
         <v>191808</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="2">
         <v>191965</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="2">
         <v>192109</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>166177</v>
       </c>
-      <c r="C92" s="3">
+      <c r="C92" s="2">
         <v>165132</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92" s="2">
         <v>165428</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <v>165382</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2">
         <v>165005</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="2">
         <v>165133</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="2">
         <v>165393</v>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="2">
         <v>165349</v>
       </c>
-      <c r="J92" s="3">
+      <c r="J92" s="2">
         <v>165384</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="2">
         <v>165454</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L92" s="2">
         <v>165614</v>
       </c>
-      <c r="M92" s="3">
+      <c r="M92" s="2">
         <v>165880</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>155233</v>
       </c>
-      <c r="C93" s="3">
+      <c r="C93" s="2">
         <v>154831</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93" s="2">
         <v>155191</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <v>155188</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <v>155118</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93" s="2">
         <v>155292</v>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="2">
         <v>155494</v>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="2">
         <v>155775</v>
       </c>
-      <c r="J93" s="3">
+      <c r="J93" s="2">
         <v>156075</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="2">
         <v>156314</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L93" s="2">
         <v>156416</v>
       </c>
-      <c r="M93" s="3">
+      <c r="M93" s="2">
         <v>156523</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>33</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>876229</v>
       </c>
-      <c r="C94" s="3">
+      <c r="C94" s="2">
         <v>875218</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="2">
         <v>874782</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>874388</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <v>873185</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94" s="2">
         <v>873896</v>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="2">
         <v>874854</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="2">
         <v>875575</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="2">
         <v>876791</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="2">
         <v>877681</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="2">
         <v>879066</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="2">
         <v>879055</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>34</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>141852</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95" s="2">
         <v>140097</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>140195</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <v>139885</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <v>139256</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95" s="2">
         <v>139346</v>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="2">
         <v>139211</v>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="2">
         <v>138945</v>
       </c>
-      <c r="J95" s="3">
+      <c r="J95" s="2">
         <v>139043</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="2">
         <v>139015</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95" s="2">
         <v>139102</v>
       </c>
-      <c r="M95" s="3">
+      <c r="M95" s="2">
         <v>139745</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>35</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>1358468</v>
       </c>
-      <c r="C96" s="3">
+      <c r="C96" s="2">
         <v>1361586</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>1361217</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <v>1359296</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2">
         <v>1356421</v>
       </c>
-      <c r="G96" s="3">
+      <c r="G96" s="2">
         <v>1355917</v>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="2">
         <v>1355241</v>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="2">
         <v>1350362</v>
       </c>
-      <c r="J96" s="3">
+      <c r="J96" s="2">
         <v>1350284</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="2">
         <v>1349776</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96" s="2">
         <v>1349342</v>
       </c>
-      <c r="M96" s="3">
+      <c r="M96" s="2">
         <v>1349556</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>36</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>696374</v>
       </c>
-      <c r="C97" s="3">
+      <c r="C97" s="2">
         <v>691187</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>690703</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="2">
         <v>687425</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="2">
         <v>684637</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97" s="2">
         <v>683954</v>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="2">
         <v>683633</v>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="2">
         <v>682828</v>
       </c>
-      <c r="J97" s="3">
+      <c r="J97" s="2">
         <v>683143</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="2">
         <v>681974</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97" s="2">
         <v>682929</v>
       </c>
-      <c r="M97" s="3">
+      <c r="M97" s="2">
         <v>683319</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>37</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>81573</v>
       </c>
-      <c r="C98" s="3">
+      <c r="C98" s="2">
         <v>88796</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>88909</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="2">
         <v>88869</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="2">
         <v>88780</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98" s="2">
         <v>89027</v>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="2">
         <v>89197</v>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="2">
         <v>89402</v>
       </c>
-      <c r="J98" s="3">
+      <c r="J98" s="2">
         <v>89555</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="2">
         <v>89729</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98" s="2">
         <v>89849</v>
       </c>
-      <c r="M98" s="3">
+      <c r="M98" s="2">
         <v>89846</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>38</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>357</v>
       </c>
-      <c r="C99" s="3">
+      <c r="C99" s="2">
         <v>356</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <v>356</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="2">
         <v>350</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="2">
         <v>349</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99" s="2">
         <v>351</v>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="2">
         <v>352</v>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="2">
         <v>351</v>
       </c>
-      <c r="J99" s="3">
+      <c r="J99" s="2">
         <v>348</v>
       </c>
-      <c r="K99" s="3">
+      <c r="K99" s="2">
         <v>338</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L99" s="2">
         <v>342</v>
       </c>
-      <c r="M99" s="3">
+      <c r="M99" s="2">
         <v>338</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>39</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>961525</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C100" s="2">
         <v>955445</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <v>954229</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="2">
         <v>953341</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="2">
         <v>951429</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="2">
         <v>951797</v>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="2">
         <v>954272</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="2">
         <v>953827</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="2">
         <v>955243</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="2">
         <v>954821</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="2">
         <v>955296</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="2">
         <v>956803</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>40</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>307772</v>
       </c>
-      <c r="C101" s="3">
+      <c r="C101" s="2">
         <v>306338</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="2">
         <v>306240</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="2">
         <v>305217</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="2">
         <v>304176</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101" s="2">
         <v>303974</v>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="2">
         <v>304030</v>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="2">
         <v>304355</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="2">
         <v>304550</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="2">
         <v>304343</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="2">
         <v>304341</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="2">
         <v>304423</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>41</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>267868</v>
       </c>
-      <c r="C102" s="3">
+      <c r="C102" s="2">
         <v>265671</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="2">
         <v>266400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="2">
         <v>265668</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="2">
         <v>265018</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102" s="2">
         <v>265174</v>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="2">
         <v>265546</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="2">
         <v>265782</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="2">
         <v>266304</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="2">
         <v>266500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="2">
         <v>267308</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="2">
         <v>267867</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>42</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>1067612</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103" s="2">
         <v>1063325</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="2">
         <v>1065073</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="2">
         <v>1063625</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="2">
         <v>1061501</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103" s="2">
         <v>1062127</v>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="2">
         <v>1063046</v>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="2">
         <v>1063124</v>
       </c>
-      <c r="J103" s="3">
+      <c r="J103" s="2">
         <v>1065105</v>
       </c>
-      <c r="K103" s="3">
+      <c r="K103" s="2">
         <v>1065211</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L103" s="2">
         <v>1065617</v>
       </c>
-      <c r="M103" s="3">
+      <c r="M103" s="2">
         <v>1066830</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>43</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>12538</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104" s="2">
         <v>12414</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="2">
         <v>12287</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="2">
         <v>12182</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="2">
         <v>12055</v>
       </c>
-      <c r="G104" s="3">
+      <c r="G104" s="2">
         <v>12022</v>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="2">
         <v>11980</v>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="2">
         <v>11934</v>
       </c>
-      <c r="J104" s="3">
+      <c r="J104" s="2">
         <v>11887</v>
       </c>
-      <c r="K104" s="3">
+      <c r="K104" s="2">
         <v>11830</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L104" s="2">
         <v>11815</v>
       </c>
-      <c r="M104" s="3">
+      <c r="M104" s="2">
         <v>11768</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>44</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>66084</v>
       </c>
-      <c r="C105" s="3">
+      <c r="C105" s="2">
         <v>65363</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105" s="2">
         <v>65329</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="2">
         <v>65005</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="2">
         <v>64672</v>
       </c>
-      <c r="G105" s="3">
+      <c r="G105" s="2">
         <v>64585</v>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="2">
         <v>64697</v>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="2">
         <v>64324</v>
       </c>
-      <c r="J105" s="3">
+      <c r="J105" s="2">
         <v>64414</v>
       </c>
-      <c r="K105" s="3">
+      <c r="K105" s="2">
         <v>64032</v>
       </c>
-      <c r="L105" s="3">
+      <c r="L105" s="2">
         <v>63725</v>
       </c>
-      <c r="M105" s="3">
+      <c r="M105" s="2">
         <v>63587</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>447587</v>
       </c>
-      <c r="C106" s="3">
+      <c r="C106" s="2">
         <v>445993</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106" s="2">
         <v>446710</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="2">
         <v>446377</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="2">
         <v>446201</v>
       </c>
-      <c r="G106" s="3">
+      <c r="G106" s="2">
         <v>446714</v>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="2">
         <v>447350</v>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="2">
         <v>448374</v>
       </c>
-      <c r="J106" s="3">
+      <c r="J106" s="2">
         <v>449014</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="2">
         <v>449132</v>
       </c>
-      <c r="L106" s="3">
+      <c r="L106" s="2">
         <v>449522</v>
       </c>
-      <c r="M106" s="3">
+      <c r="M106" s="2">
         <v>450130</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>46</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>112635</v>
       </c>
-      <c r="C107" s="3">
+      <c r="C107" s="2">
         <v>112758</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107" s="2">
         <v>112927</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="2">
         <v>112942</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="2">
         <v>112813</v>
       </c>
-      <c r="G107" s="3">
+      <c r="G107" s="2">
         <v>112967</v>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="2">
         <v>113265</v>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="2">
         <v>113483</v>
       </c>
-      <c r="J107" s="3">
+      <c r="J107" s="2">
         <v>113712</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="2">
         <v>113889</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L107" s="2">
         <v>114057</v>
       </c>
-      <c r="M107" s="3">
+      <c r="M107" s="2">
         <v>114093</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>47</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>470527</v>
       </c>
-      <c r="C108" s="3">
+      <c r="C108" s="2">
         <v>467352</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108" s="2">
         <v>467005</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="2">
         <v>465894</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="2">
         <v>464572</v>
       </c>
-      <c r="G108" s="3">
+      <c r="G108" s="2">
         <v>464252</v>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="2">
         <v>464566</v>
       </c>
-      <c r="I108" s="3">
+      <c r="I108" s="2">
         <v>464322</v>
       </c>
-      <c r="J108" s="3">
+      <c r="J108" s="2">
         <v>464595</v>
       </c>
-      <c r="K108" s="3">
+      <c r="K108" s="2">
         <v>464544</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L108" s="2">
         <v>464765</v>
       </c>
-      <c r="M108" s="3">
+      <c r="M108" s="2">
         <v>464912</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>48</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>1558842</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="2">
         <v>1554824</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109" s="2">
         <v>1556698</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="2">
         <v>1554061</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="2">
         <v>1549240</v>
       </c>
-      <c r="G109" s="3">
+      <c r="G109" s="2">
         <v>1550729</v>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="2">
         <v>1552650</v>
       </c>
-      <c r="I109" s="3">
+      <c r="I109" s="2">
         <v>1551934</v>
       </c>
-      <c r="J109" s="3">
+      <c r="J109" s="2">
         <v>1554630</v>
       </c>
-      <c r="K109" s="3">
+      <c r="K109" s="2">
         <v>1555956</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L109" s="2">
         <v>1557581</v>
       </c>
-      <c r="M109" s="3">
+      <c r="M109" s="2">
         <v>1559946</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>49</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>135105</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="2">
         <v>134070</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110" s="2">
         <v>134063</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="2">
         <v>133998</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="2">
         <v>133712</v>
       </c>
-      <c r="G110" s="3">
+      <c r="G110" s="2">
         <v>133748</v>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="2">
         <v>133838</v>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="2">
         <v>134018</v>
       </c>
-      <c r="J110" s="3">
+      <c r="J110" s="2">
         <v>134433</v>
       </c>
-      <c r="K110" s="3">
+      <c r="K110" s="2">
         <v>134403</v>
       </c>
-      <c r="L110" s="3">
+      <c r="L110" s="2">
         <v>134643</v>
       </c>
-      <c r="M110" s="3">
+      <c r="M110" s="2">
         <v>134721</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>50</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>82705</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="2">
         <v>81599</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111" s="2">
         <v>81668</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="2">
         <v>81551</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="2">
         <v>81421</v>
       </c>
-      <c r="G111" s="3">
+      <c r="G111" s="2">
         <v>81465</v>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="2">
         <v>81498</v>
       </c>
-      <c r="I111" s="3">
+      <c r="I111" s="2">
         <v>81590</v>
       </c>
-      <c r="J111" s="3">
+      <c r="J111" s="2">
         <v>81671</v>
       </c>
-      <c r="K111" s="3">
+      <c r="K111" s="2">
         <v>81712</v>
       </c>
-      <c r="L111" s="3">
+      <c r="L111" s="2">
         <v>81776</v>
       </c>
-      <c r="M111" s="3">
+      <c r="M111" s="2">
         <v>81789</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>51</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>5954</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="2">
         <v>5964</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112" s="2">
         <v>5965</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="2">
         <v>5945</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="2">
         <v>5857</v>
       </c>
-      <c r="G112" s="3">
+      <c r="G112" s="2">
         <v>5839</v>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="2">
         <v>5817</v>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="2">
         <v>5778</v>
       </c>
-      <c r="J112" s="3">
+      <c r="J112" s="2">
         <v>5753</v>
       </c>
-      <c r="K112" s="3">
+      <c r="K112" s="2">
         <v>5729</v>
       </c>
-      <c r="L112" s="3">
+      <c r="L112" s="2">
         <v>5693</v>
       </c>
-      <c r="M112" s="3">
+      <c r="M112" s="2">
         <v>5677</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>52</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>621031</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="2">
         <v>616268</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113" s="2">
         <v>615821</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="2">
         <v>614070</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="2">
         <v>611961</v>
       </c>
-      <c r="G113" s="3">
+      <c r="G113" s="2">
         <v>611363</v>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="2">
         <v>611356</v>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="2">
         <v>611017</v>
       </c>
-      <c r="J113" s="3">
+      <c r="J113" s="2">
         <v>611262</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="2">
         <v>611261</v>
       </c>
-      <c r="L113" s="3">
+      <c r="L113" s="2">
         <v>611129</v>
       </c>
-      <c r="M113" s="3">
+      <c r="M113" s="2">
         <v>611241</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>53</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>456716</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="2">
         <v>453949</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114" s="2">
         <v>453726</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="2">
         <v>453039</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="2">
         <v>451905</v>
       </c>
-      <c r="G114" s="3">
+      <c r="G114" s="2">
         <v>451965</v>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="2">
         <v>452319</v>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="2">
         <v>452101</v>
       </c>
-      <c r="J114" s="3">
+      <c r="J114" s="2">
         <v>452038</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="2">
         <v>452058</v>
       </c>
-      <c r="L114" s="3">
+      <c r="L114" s="2">
         <v>452461</v>
       </c>
-      <c r="M114" s="3">
+      <c r="M114" s="2">
         <v>452901</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>54</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>35926</v>
       </c>
-      <c r="C115" s="3">
+      <c r="C115" s="2">
         <v>35750</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115" s="2">
         <v>35754</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="2">
         <v>35671</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="2">
         <v>35374</v>
       </c>
-      <c r="G115" s="3">
+      <c r="G115" s="2">
         <v>35255</v>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="2">
         <v>35262</v>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="2">
         <v>35218</v>
       </c>
-      <c r="J115" s="3">
+      <c r="J115" s="2">
         <v>35097</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K115" s="2">
         <v>35184</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L115" s="2">
         <v>35310</v>
       </c>
-      <c r="M115" s="3">
+      <c r="M115" s="2">
         <v>35435</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>55</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>156412</v>
       </c>
-      <c r="C116" s="3">
+      <c r="C116" s="2">
         <v>154547</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116" s="2">
         <v>154289</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="2">
         <v>153477</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="2">
         <v>152453</v>
       </c>
-      <c r="G116" s="3">
+      <c r="G116" s="2">
         <v>152152</v>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="2">
         <v>151853</v>
       </c>
-      <c r="I116" s="3">
+      <c r="I116" s="2">
         <v>151068</v>
       </c>
-      <c r="J116" s="3">
+      <c r="J116" s="2">
         <v>150850</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K116" s="2">
         <v>150414</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L116" s="2">
         <v>150162</v>
       </c>
-      <c r="M116" s="3">
+      <c r="M116" s="2">
         <v>150191</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>56</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>427963</v>
       </c>
-      <c r="C117" s="3">
+      <c r="C117" s="2">
         <v>425087</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117" s="2">
         <v>425531</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="2">
         <v>425252</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="2">
         <v>424126</v>
       </c>
-      <c r="G117" s="3">
+      <c r="G117" s="2">
         <v>424935</v>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="2">
         <v>425470</v>
       </c>
-      <c r="I117" s="3">
+      <c r="I117" s="2">
         <v>425528</v>
       </c>
-      <c r="J117" s="3">
+      <c r="J117" s="2">
         <v>426271</v>
       </c>
-      <c r="K117" s="3">
+      <c r="K117" s="2">
         <v>426209</v>
       </c>
-      <c r="L117" s="3">
+      <c r="L117" s="2">
         <v>426407</v>
       </c>
-      <c r="M117" s="3">
+      <c r="M117" s="2">
         <v>426382</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>57</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>73244</v>
       </c>
-      <c r="C118" s="3">
+      <c r="C118" s="2">
         <v>73185</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118" s="2">
         <v>73289</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="2">
         <v>73298</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="2">
         <v>73222</v>
       </c>
-      <c r="G118" s="3">
+      <c r="G118" s="2">
         <v>73295</v>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="2">
         <v>73477</v>
       </c>
-      <c r="I118" s="3">
+      <c r="I118" s="2">
         <v>73600</v>
       </c>
-      <c r="J118" s="3">
+      <c r="J118" s="2">
         <v>73737</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K118" s="2">
         <v>73918</v>
       </c>
-      <c r="L118" s="3">
+      <c r="L118" s="2">
         <v>74012</v>
       </c>
-      <c r="M118" s="3">
+      <c r="M118" s="2">
         <v>74084</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>0</v>
       </c>
@@ -5822,10 +5821,10 @@
         <v>594728</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>682579</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -5989,7 +5988,7 @@
         <v>250221</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -6030,7 +6029,7 @@
         <v>3127646</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -6071,7 +6070,7 @@
         <v>479276</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>377032</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -6153,7 +6152,7 @@
         <v>62625</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>2642293</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>12</v>
       </c>
@@ -6235,7 +6234,7 @@
         <v>946908</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>13</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>14</v>
       </c>
@@ -6317,7 +6316,7 @@
         <v>153683</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>163645</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -6399,7 +6398,7 @@
         <v>793534</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>17</v>
       </c>
@@ -6440,7 +6439,7 @@
         <v>584219</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>18</v>
       </c>
@@ -6481,7 +6480,7 @@
         <v>196967</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -6522,7 +6521,7 @@
         <v>163285</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -6563,7 +6562,7 @@
         <v>466197</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>21</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>466036</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>22</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>193028</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>23</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>211198</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>24</v>
       </c>
@@ -6727,7 +6726,7 @@
         <v>406271</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>25</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>1174859</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -6809,7 +6808,7 @@
         <v>550551</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>27</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>222325</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>28</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>618825</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>29</v>
       </c>
@@ -6932,7 +6931,7 @@
         <v>63549</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>30</v>
       </c>
@@ -6973,7 +6972,7 @@
         <v>97652</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>31</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>270580</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>32</v>
       </c>
@@ -7055,7 +7054,7 @@
         <v>96837</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -7096,7 +7095,7 @@
         <v>634234</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>207472</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>35</v>
       </c>
@@ -7178,7 +7177,7 @@
         <v>1835210</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>36</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>1049379</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>37</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>14010</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>38</v>
       </c>
@@ -7301,7 +7300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>39</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>1201960</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>40</v>
       </c>
@@ -7383,7 +7382,7 @@
         <v>272944</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>41</v>
       </c>
@@ -7424,7 +7423,7 @@
         <v>474145</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>42</v>
       </c>
@@ -7465,7 +7464,7 @@
         <v>1401027</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>43</v>
       </c>
@@ -7506,7 +7505,7 @@
         <v>638919</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>44</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>115757</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>45</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>465269</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>46</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>24152</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>47</v>
       </c>
@@ -7670,7 +7669,7 @@
         <v>696346</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>48</v>
       </c>
@@ -7711,7 +7710,7 @@
         <v>2217815</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>49</v>
       </c>
@@ -7752,7 +7751,7 @@
         <v>206040</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>50</v>
       </c>
@@ -7793,7 +7792,7 @@
         <v>43618</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>5513</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>52</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>541065</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>53</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>627142</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>54</v>
       </c>
@@ -7957,7 +7956,7 @@
         <v>27272</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>55</v>
       </c>
@@ -7998,7 +7997,7 @@
         <v>193775</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>56</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>619148</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>57</v>
       </c>
@@ -8080,9 +8079,9 @@
         <v>9021</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
